--- a/2020/January/All Details/16.01.2020/MC Bank Statement Jan'2020.xlsx
+++ b/2020/January/All Details/16.01.2020/MC Bank Statement Jan'2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\15.01.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\16.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCCA50E-C16B-4381-9887-AFDA49E127AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455A0E4E-E2A9-4D09-85CA-9AE0C314D1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -166,9 +166,6 @@
     <t>12.01.2020</t>
   </si>
   <si>
-    <t>Hand</t>
-  </si>
-  <si>
     <t>Symphony  Balance(+)</t>
   </si>
   <si>
@@ -184,7 +181,13 @@
     <t>15.01.2020</t>
   </si>
   <si>
-    <t>Date: 15.01.2020</t>
+    <t>16.01.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jafor </t>
+  </si>
+  <si>
+    <t>Date: 16.01.2020</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2025,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2319,7 +2322,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="60"/>
       <c r="B18" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="64">
         <v>330000</v>
@@ -2338,7 +2341,7 @@
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="60"/>
       <c r="B19" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="64">
         <v>240000</v>
@@ -2355,7 +2358,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="60"/>
       <c r="B20" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="88">
         <v>150000</v>
@@ -2368,7 +2371,7 @@
         <v>97000</v>
       </c>
       <c r="F20" s="137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="69"/>
       <c r="H20" s="2"/>
@@ -2376,7 +2379,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="60"/>
       <c r="B21" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="64">
         <v>207000</v>
@@ -2394,12 +2397,18 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="60"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
+      <c r="B22" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="64">
+        <v>314000</v>
+      </c>
+      <c r="D22" s="88">
+        <v>310000</v>
+      </c>
       <c r="E22" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F22" s="58"/>
       <c r="G22" s="2"/>
@@ -2412,7 +2421,7 @@
       <c r="D23" s="64"/>
       <c r="E23" s="96">
         <f>E22+C23-D23</f>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F23" s="56"/>
       <c r="G23" s="2"/>
@@ -2425,7 +2434,7 @@
       <c r="D24" s="64"/>
       <c r="E24" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F24" s="56"/>
       <c r="G24" s="2"/>
@@ -2438,7 +2447,7 @@
       <c r="D25" s="64"/>
       <c r="E25" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F25" s="56"/>
       <c r="G25" s="2"/>
@@ -2451,7 +2460,7 @@
       <c r="D26" s="64"/>
       <c r="E26" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F26" s="56"/>
       <c r="G26" s="2"/>
@@ -2464,7 +2473,7 @@
       <c r="D27" s="64"/>
       <c r="E27" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F27" s="56"/>
       <c r="G27" s="2"/>
@@ -2477,7 +2486,7 @@
       <c r="D28" s="64"/>
       <c r="E28" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F28" s="56"/>
       <c r="G28" s="2"/>
@@ -2490,7 +2499,7 @@
       <c r="D29" s="64"/>
       <c r="E29" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F29" s="56"/>
       <c r="G29" s="2"/>
@@ -2503,7 +2512,7 @@
       <c r="D30" s="64"/>
       <c r="E30" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F30" s="56"/>
       <c r="G30" s="2"/>
@@ -2516,7 +2525,7 @@
       <c r="D31" s="64"/>
       <c r="E31" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F31" s="104" t="s">
         <v>32</v>
@@ -2531,7 +2540,7 @@
       <c r="D32" s="64"/>
       <c r="E32" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F32" s="56"/>
       <c r="G32" s="2"/>
@@ -2544,7 +2553,7 @@
       <c r="D33" s="68"/>
       <c r="E33" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F33" s="56"/>
       <c r="G33" s="2"/>
@@ -2557,7 +2566,7 @@
       <c r="D34" s="64"/>
       <c r="E34" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F34" s="56"/>
       <c r="G34" s="2"/>
@@ -2570,7 +2579,7 @@
       <c r="D35" s="64"/>
       <c r="E35" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F35" s="56"/>
       <c r="G35" s="2"/>
@@ -2583,7 +2592,7 @@
       <c r="D36" s="64"/>
       <c r="E36" s="96">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F36" s="56"/>
       <c r="G36" s="2"/>
@@ -2596,7 +2605,7 @@
       <c r="D37" s="64"/>
       <c r="E37" s="95">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F37" s="56"/>
       <c r="G37" s="2"/>
@@ -2609,7 +2618,7 @@
       <c r="D38" s="64"/>
       <c r="E38" s="95">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F38" s="56"/>
       <c r="G38" s="2"/>
@@ -2622,7 +2631,7 @@
       <c r="D39" s="64"/>
       <c r="E39" s="95">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F39" s="56"/>
       <c r="G39" s="2"/>
@@ -2635,7 +2644,7 @@
       <c r="D40" s="64"/>
       <c r="E40" s="95">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F40" s="56"/>
       <c r="G40" s="2"/>
@@ -2648,7 +2657,7 @@
       <c r="D41" s="64"/>
       <c r="E41" s="95">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F41" s="56"/>
       <c r="G41" s="2"/>
@@ -2661,7 +2670,7 @@
       <c r="D42" s="64"/>
       <c r="E42" s="95">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F42" s="56"/>
       <c r="G42" s="2"/>
@@ -2674,7 +2683,7 @@
       <c r="D43" s="64"/>
       <c r="E43" s="95">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F43" s="56"/>
       <c r="G43" s="2"/>
@@ -2687,7 +2696,7 @@
       <c r="D44" s="64"/>
       <c r="E44" s="95">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F44" s="56"/>
       <c r="G44" s="2"/>
@@ -2700,7 +2709,7 @@
       <c r="D45" s="64"/>
       <c r="E45" s="95">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F45" s="56"/>
       <c r="G45" s="2"/>
@@ -2713,7 +2722,7 @@
       <c r="D46" s="64"/>
       <c r="E46" s="95">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F46" s="56"/>
       <c r="G46" s="2"/>
@@ -2726,7 +2735,7 @@
       <c r="D47" s="64"/>
       <c r="E47" s="95">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F47" s="56"/>
       <c r="G47" s="2"/>
@@ -2739,7 +2748,7 @@
       <c r="D48" s="64"/>
       <c r="E48" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F48" s="56"/>
       <c r="G48" s="2"/>
@@ -2751,7 +2760,7 @@
       <c r="D49" s="64"/>
       <c r="E49" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F49" s="56"/>
       <c r="G49" s="2"/>
@@ -2763,7 +2772,7 @@
       <c r="D50" s="64"/>
       <c r="E50" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F50" s="56"/>
       <c r="G50" s="2"/>
@@ -2775,7 +2784,7 @@
       <c r="D51" s="64"/>
       <c r="E51" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F51" s="56"/>
       <c r="G51" s="2"/>
@@ -2787,7 +2796,7 @@
       <c r="D52" s="64"/>
       <c r="E52" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F52" s="56"/>
       <c r="G52" s="2"/>
@@ -2799,7 +2808,7 @@
       <c r="D53" s="64"/>
       <c r="E53" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F53" s="56"/>
       <c r="G53" s="2"/>
@@ -2811,7 +2820,7 @@
       <c r="D54" s="64"/>
       <c r="E54" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F54" s="56"/>
       <c r="G54" s="2"/>
@@ -2823,7 +2832,7 @@
       <c r="D55" s="64"/>
       <c r="E55" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F55" s="56"/>
       <c r="G55" s="2"/>
@@ -2834,7 +2843,7 @@
       <c r="D56" s="64"/>
       <c r="E56" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F56" s="56"/>
       <c r="G56" s="2"/>
@@ -2845,7 +2854,7 @@
       <c r="D57" s="64"/>
       <c r="E57" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F57" s="56"/>
       <c r="G57" s="2"/>
@@ -2856,7 +2865,7 @@
       <c r="D58" s="64"/>
       <c r="E58" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F58" s="56"/>
       <c r="G58" s="2"/>
@@ -2867,7 +2876,7 @@
       <c r="D59" s="64"/>
       <c r="E59" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F59" s="56"/>
       <c r="G59" s="2"/>
@@ -2878,7 +2887,7 @@
       <c r="D60" s="64"/>
       <c r="E60" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F60" s="56"/>
       <c r="G60" s="2"/>
@@ -2889,7 +2898,7 @@
       <c r="D61" s="64"/>
       <c r="E61" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F61" s="56"/>
       <c r="G61" s="2"/>
@@ -2900,7 +2909,7 @@
       <c r="D62" s="64"/>
       <c r="E62" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F62" s="56"/>
       <c r="G62" s="2"/>
@@ -2911,7 +2920,7 @@
       <c r="D63" s="64"/>
       <c r="E63" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F63" s="56"/>
       <c r="G63" s="2"/>
@@ -2922,7 +2931,7 @@
       <c r="D64" s="64"/>
       <c r="E64" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F64" s="56"/>
       <c r="G64" s="2"/>
@@ -2933,7 +2942,7 @@
       <c r="D65" s="64"/>
       <c r="E65" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F65" s="56"/>
       <c r="G65" s="2"/>
@@ -2944,7 +2953,7 @@
       <c r="D66" s="64"/>
       <c r="E66" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F66" s="56"/>
       <c r="G66" s="2"/>
@@ -2955,7 +2964,7 @@
       <c r="D67" s="64"/>
       <c r="E67" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F67" s="56"/>
       <c r="G67" s="2"/>
@@ -2966,7 +2975,7 @@
       <c r="D68" s="64"/>
       <c r="E68" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F68" s="56"/>
       <c r="G68" s="2"/>
@@ -2977,7 +2986,7 @@
       <c r="D69" s="64"/>
       <c r="E69" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F69" s="56"/>
       <c r="G69" s="2"/>
@@ -2988,7 +2997,7 @@
       <c r="D70" s="64"/>
       <c r="E70" s="65">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F70" s="56"/>
       <c r="G70" s="2"/>
@@ -2999,7 +3008,7 @@
       <c r="D71" s="64"/>
       <c r="E71" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F71" s="56"/>
       <c r="G71" s="2"/>
@@ -3010,7 +3019,7 @@
       <c r="D72" s="64"/>
       <c r="E72" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F72" s="56"/>
       <c r="G72" s="2"/>
@@ -3021,7 +3030,7 @@
       <c r="D73" s="64"/>
       <c r="E73" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F73" s="56"/>
       <c r="G73" s="2"/>
@@ -3032,7 +3041,7 @@
       <c r="D74" s="64"/>
       <c r="E74" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F74" s="56"/>
       <c r="G74" s="2"/>
@@ -3043,7 +3052,7 @@
       <c r="D75" s="64"/>
       <c r="E75" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F75" s="58"/>
       <c r="G75" s="2"/>
@@ -3054,7 +3063,7 @@
       <c r="D76" s="64"/>
       <c r="E76" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F76" s="56"/>
       <c r="G76" s="2"/>
@@ -3065,7 +3074,7 @@
       <c r="D77" s="64"/>
       <c r="E77" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F77" s="56"/>
       <c r="G77" s="2"/>
@@ -3076,7 +3085,7 @@
       <c r="D78" s="64"/>
       <c r="E78" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F78" s="56"/>
       <c r="G78" s="2"/>
@@ -3087,7 +3096,7 @@
       <c r="D79" s="64"/>
       <c r="E79" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F79" s="56"/>
       <c r="G79" s="2"/>
@@ -3098,7 +3107,7 @@
       <c r="D80" s="64"/>
       <c r="E80" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F80" s="56"/>
       <c r="G80" s="2"/>
@@ -3109,7 +3118,7 @@
       <c r="D81" s="64"/>
       <c r="E81" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F81" s="56"/>
       <c r="G81" s="2"/>
@@ -3120,7 +3129,7 @@
       <c r="D82" s="64"/>
       <c r="E82" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F82" s="56"/>
       <c r="G82" s="2"/>
@@ -3129,15 +3138,15 @@
       <c r="B83" s="72"/>
       <c r="C83" s="67">
         <f>SUM(C5:C72)</f>
-        <v>4094000</v>
+        <v>4408000</v>
       </c>
       <c r="D83" s="67">
         <f>SUM(D5:D77)</f>
-        <v>4090000</v>
+        <v>4400000</v>
       </c>
       <c r="E83" s="73">
         <f>E71+C83-D83</f>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="F83" s="57"/>
       <c r="G83" s="2"/>
@@ -3202,7 +3211,7 @@
     </row>
     <row r="2" spans="1:37" ht="21.75" customHeight="1">
       <c r="A2" s="147" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="148"/>
       <c r="C2" s="148"/>
@@ -3291,7 +3300,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="107">
-        <v>5068948.7850000011</v>
+        <v>5046085.585</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="99"/>
@@ -3331,14 +3340,14 @@
         <v>6</v>
       </c>
       <c r="B5" s="29">
-        <v>95578.099999999991</v>
+        <v>107887.7</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="125" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="107">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="99"/>
@@ -3379,14 +3388,14 @@
       </c>
       <c r="B6" s="29">
         <f>B4+B5</f>
-        <v>7095578.0999999996</v>
+        <v>7107887.7000000002</v>
       </c>
       <c r="C6" s="79"/>
       <c r="D6" s="103" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E6" s="108">
-        <v>315000</v>
+        <v>280000</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="99"/>
@@ -3433,7 +3442,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="40">
-        <v>1378166</v>
+        <v>1592416</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="99"/>
@@ -3473,7 +3482,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="29">
-        <v>14372</v>
+        <v>15922</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="125" t="s">
@@ -3522,10 +3531,10 @@
       <c r="B9" s="30"/>
       <c r="C9" s="20"/>
       <c r="D9" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="107">
-        <v>315091.31499999855</v>
+        <v>165464.11499999929</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="99"/>
@@ -3564,7 +3573,7 @@
       </c>
       <c r="B10" s="48">
         <f>B5-B8-B9</f>
-        <v>81206.099999999991</v>
+        <v>91965.7</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="125"/>
@@ -3688,7 +3697,7 @@
       </c>
       <c r="B13" s="31">
         <f>B6-B8+B11-B12-B9</f>
-        <v>7081206.0999999996</v>
+        <v>7091965.7000000002</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26" t="s">
@@ -3696,7 +3705,7 @@
       </c>
       <c r="E13" s="41">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>7081206.0999999996</v>
+        <v>7091965.6999999993</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="88">
@@ -3921,7 +3930,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="115">
-        <v>277345</v>
+        <v>406810</v>
       </c>
       <c r="G18" s="101"/>
       <c r="H18" s="100"/>
@@ -3960,7 +3969,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="87">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="35" t="s">
